--- a/medicine/Maladies infectieuses/Réponses_des_États-Unis_à_la_pandémie_de_COVID-19/Réponses_des_États-Unis_à_la_pandémie_de_COVID-19.xlsx
+++ b/medicine/Maladies infectieuses/Réponses_des_États-Unis_à_la_pandémie_de_COVID-19/Réponses_des_États-Unis_à_la_pandémie_de_COVID-19.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R%C3%A9ponses_des_%C3%89tats-Unis_%C3%A0_la_pand%C3%A9mie_de_COVID-19</t>
+          <t>Réponses_des_États-Unis_à_la_pandémie_de_COVID-19</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La réponse des États-Unis à la pandémie de COVID-19 consiste en diverses mesures prises par différents acteurs : la communauté médicale, les gouvernements fédéral, étatiques et locaux, les militaires et le secteur privé. La réponse du public a été très polarisée, avec des divisions partisanes observées et un certain nombre de protestations et de troubles simultanés compliquant la réponse.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R%C3%A9ponses_des_%C3%89tats-Unis_%C3%A0_la_pand%C3%A9mie_de_COVID-19</t>
+          <t>Réponses_des_États-Unis_à_la_pandémie_de_COVID-19</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,51 +523,11 @@
           <t>Réponse médicale</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La réponse des États-Unis à la pandémie de COVID-19 consiste en diverses mesures prises par différents acteurs : la communauté médicale, les gouvernements fédéral, étatiques et locaux, les militaires et le secteur privé. La réponse du public a été très polarisée, avec des divisions partisanes observées et un certain nombre de protestations et de troubles simultanés compliquant la réponse.
-Réponse initiale en dehors des États-Unis
-Le 6 janvier 2020, une semaine après que les États-Unis ont été informés de l'existence de l'épidémie en Chine, le département de la santé et des services sociaux et le CDC ont proposé d'envoyer une équipe d'experts américains de la santé en Chine[1]. Selon le directeur du CDC, Robert R. Redfield, le gouvernement chinois a refusé de les laisser entrer, ce qui a contribué à ralentir l'identification du danger lié à l'épidémie et à la contenir avant qu'elle n'atteigne d'autres pays[2]. Le secrétaire Alex Azar a déclaré que la Chine avait informé le monde beaucoup plus tôt qu'elle ne l'avait fait après leur épidémie de SRAS en 2003, mais qu'elle refusait sans donner d'explication l'aide du CDC pour lutter contre cette nouvelle épidémie[3].
-Le 28 janvier 2020, le CDC a mis à jour ses recommandations de voyage en Chine, en plaçant ce pays au niveau 3, sa plus haute alerte[1]. Azar a soumis les noms d'experts américains à l'OMS et a déclaré que les États-Unis fourniraient 105 $ millions de dollars de financement, ajoutant qu'il avait demandé 136 millions de dollars supplémentaires  au Congrès[4],[3]. Le 8 février, le directeur général de l'OMS a annoncé qu'une équipe d'experts internationaux avait été constituée pour se rendre en Chine et il espérait que des responsables du CDC feraient également partie de cette mission[5],[3]. L'équipe de l'OMS était composée de treize chercheurs internationaux, dont deux Américains ; elle a visité cinq villes de Chine avec douze scientifiques locaux pour étudier l'épidémie du 16 au 23 février 2020[6]. Le rapport final a été publié le 28 février[7].
-Fin janvier, l'aviateur américain Boeing a annoncé un don de 250 000 masques médicaux pour aider à faire face aux pénuries d'approvisionnement en Chine[8]. Le 7 février 2020, le département d'État a déclaré qu'il avait facilité le transport de près de dix-huit tonnes de fournitures médicales vers la Chine, notamment des masques, des blouses, de la gaze, des respirateurs et d'autres matériels vitaux[4]. Le même jour, le secrétaire d'État américain Pompeo a annoncé une somme de 100 millions de dollars afin d'aider la Chine et d'autres pays à lutter contre le virus[9].
-Le 28 février 2020, le Département d'État a proposé d'aider l'Iran à combattre sa propre épidémie, alors que les cas et les décès dans ce pays augmentaient considérablement[10],[11]. L'Iran a cependant déclaré que les sanctions américaines entravaient sa lutte contre la maladie, ce que les États-Unis ont nié, affirmant que l'Iran avait mal géré la crise[12].
-Essai
-Le dépistage du SRAS-CoV-2 permet aux personnels de la santé d'identifier les personnes infectées par le coronavirus. C'est aussi un élément important du suivi de la pandémie. Il existe différents types de tests sur le marché ; certains identifient si un patient est infecté ou non, tandis que d'autres donnent des informations sur une exposition antérieure au virus.
-Un rapport publié en janvier 2021 a révélé qu'une entreprise chinoise, BGI Group, tentait de distribuer ses kits de test COVID-19 dans au moins onze États des États-Unis. Les responsables américains du renseignement et de la sécurité ont lancé des avertissements sur les risques liés à l'utilisation de ces kits chinois, car BGI tentait d'utiliser l'ADN des patients, via les machines de séquençage génétique qui étaient présentées aux laboratoires américains. Cependant, les agences fédérales, y compris la Food and Drug Administration et la Federal Emergency Management Agency, ainsi que le département américain de la Santé et des Services sociaux ont poussé les États à utiliser les kits de test BGI, malgré ces avertissements. Avec onze autres États, le Nevada a reçu les kits de test fabriqués en Chine par la société de données et d'intelligence artificielle d'Abu Dhabi, Group 42, en collaboration avec BGI. Certaines des fournitures de test ont été utilisées au Nevada, mais des États comme l'Alabama, le Dakota du Sud, l'Ohio, le Rhode Island, le Massachusetts, l'Arkansas, la Californie, l'Indiana, le Kansas, la Caroline du Nord et la Pennsylvanie n'ont pas acheté les kits BGI[13],[14].
-Recherche des contacts
-La recherche des contacts est un outil pour contrôler les taux de transmission pendant le processus de réouverture. Certains États comme le Texas et l'Arizona ont choisi de procéder à la réouverture faire de recherche des cas contacts. Les experts de la santé ont exprimé des inquiétudes quant aux lacunes dans la formation et l'embauche d'un personnel suffisant pour réduire la transmission. Les problèmes de confidentialité ont empêché des mesures telles que celles imposées en Corée du Sud où les autorités ont utilisé le suivi des téléphones portables et les détails des cartes de crédit pour localiser et tester des milliers de clients de boîtes de nuit lorsque de nouveaux cas ont commencé à apparaître[15]. Le financement de la recherche des cas contacts est considéré comme insuffisant, et même les États les mieux financés ont rencontré des difficultés pour entrer en contact avec les contacts. Le Congrès a alloué 631 $ millions pour financer les programmes de veille sanitaire des États et des collectivités locales ; mais le Johns Hopkins Center for Health Security estime que 3,6 $ milliards seront nécessaires. Le coût augmente avec le nombre d'infections et la recherche des contacts est plus facile à mettre en œuvre lorsque le nombre d'infections est plus faible. Les responsables de la santé craignent également que les plus pauvres soient détectés tardivement et « pourraient également être entravés par la méfiance des minorités envers les responsables de la santé publique »[16].
-Au 1er juillet 2020, seuls quatre États utilisaient des applications de recherche des contacts dans le cadre de leurs stratégies sanitaires pour contrôler la transmission. Les applications documentent les rencontres numériques entre smartphones, de sorte que les utilisateurs sont automatiquement avertis si une personne avec laquelle ils ont été en contact a été testée positive. Les responsables de la santé publique en Californie affirment que la plupart des fonctionnalités pourraient être dupliquées en utilisant des communications par SMS, chat, e-mail et téléphone[17].
-Développement de la pharmacothérapie
-Aux États-Unis, le remdesivir est indiqué chez les adultes et les adolescents (âgés de douze ans et plus et pesant au moins 40 kilogrammes (88,184904 lb)) pour le traitement de la COVID‑19 nécessitant une hospitalisation[18]. En novembre 2020, la FDA a délivré une autorisation d'utilisation d'urgence (EUA) pour l'association du baricitinib avec le remdesivir, pour trait des cas de COVID-19 suspecté ou confirmé en laboratoire chez les personnes hospitalisées âgées de deux ans ou plus, nécessitant de l'oxygène supplémentaire, une ventilation mécanique invasive, ou oxygénation par membrane extracorporelle (ECMO)[19]. En août 2020, il existait plus de 500 thérapies potentielles pour combattre la maladie COVID‑19 à divers stades de recherche préclinique ou clinique.
-Hydroxychloroquine et chloroquine
-Début mars, le président Trump a ordonné à la FDA de tester certains médicaments pour découvrir s'ils avaient le potentiel de traiter les patients atteints de COVID-19[20]. Parmi ceux-ci figuraient la chloroquine et l'hydroxychloroquine, qui sont utilisées avec succès pour traiter le paludisme depuis plus de cinquante ans. En France, les tests réalisés par le chercheur Didier Raoult avait donné des résultats positifs, bien que l'étude ait été critiquée pour des défauts de conception, la petite taille de l'échantillon et le fait qu'elle ait été publiée avant l'examen par les pairs[21]. L'une des études de Didier Raoult sur le COVID-19 a ensuite été retirée par l'International Journal of Antimicrobial Agents[22].
-Le 28 mars 2020, la FDA a délivré une autorisation d'utilisation d'urgence (EUA) qui a permis à certains patients hospitalisés COVID-19 d'être traités avec de l'hydroxychloroquine ou de la chloroquine[23],[20],[24]. Puis le 15 juin, la FDA a retiré l'EUA pour l'hydroxychloroquine et la chloroquine comme traitements potentiels du COVID-19. La FDA a déclaré que les preuves disponibles ne montraient « aucun avantage pour réduire la probabilité de décès ou accélérer la guérison ». Le 1er juillet, la FDA a publié un examen des problèmes de sécurité associés aux médicaments, y compris des arythmies cardiaques mortelles parmi d'autres effets secondaires[25].
-Fin juillet 2020, le président Trump continuait de promouvoir l'utilisation de l'hydroxychloroquine contre le COVID-19. Il s'opposait ainsi à la position du NIH, qui affirmait que le médicament était « très peu susceptible d'être bénéfique pour les patients hospitalisés atteints de COVID-19 »[26].
-Recherche, développement et déploiement de vaccins
-Depuis le début de 2020, plus de 70 entreprises dans le monde (dont cinq ou six opérant principalement aux États-Unis) ont commencé la recherche sur les vaccins[27],[28]. En vue de la production à grande échelle, le Congrès a prévu plus de 3,5 milliards de dollars à cette fin dans le cadre de la loi CARES[29],[28]. Le 5 août 2020, les États-Unis ont accepté de payer à Johnson et Johnson plus d'un milliard de dollars pour fabriquer 100 millions de doses de vaccin COVID-19. L'accord donnait par ailleurs aux États-Unis la possibilité de commander 200 millions de doses supplémentaires. Les doses étaient censées être fournies gratuitement aux Américains si elles étaient utilisées dans une campagne de vaccination contre le COVID-19[30].
-BIO, un groupement d'entreprise comprenant tous les fabricants de vaccins contre les coronavirus à l'exception d'AstraZeneca, a tenté de persuader le secrétaire Azar de publier des directives strictes de la FDA qui pourraient aider à garantir la sécurité et l'adoption publique du vaccin. Cependant, la politique a eu un impact sur la recherche scientifique lorsque le chef de cabinet Mark Meadows a bloqué la FDA lorsqu'il s'est rendu compte que le calendrier de mise à disposition des doses rendrait impossible l'autorisation d'un vaccin avant les élections présidentielles de novembre[31],[32]. Au bout du compte, les consignes ont émergé[33] du Bureau de la gestion et du budget et ont été publiées sur le site Web de la FDA[34].
-Le 20 novembre 2020, le partenariat Pfizer-BioNTech a soumis une demande d'autorisation d'utilisation en urgence pour son vaccin à la Food and Drug Administration (FDA)[35], qui a été accordée le 11 décembre[36]. Le 18 décembre 2020, la FDA a accordé l'autorisation d'utilisation en urgence du vaccin Moderna[37], que Moderna avait demandée le 30 novembre 2020[38].
-À partir du 14 décembre 2020, les premières doses de vaccin COVID-19 ont été administrées aux États-Unis[39]. Le CDC et chaque État gardent une trace du nombre de vaccins administrés[40].
-Après son entrée en fonction en janvier 2021, le nouveau président américain Joe Biden a signé un décret exécutif pour augmenter la production et la distribution de vaccins, afin d'administrer cent millions de doses au cours de ses 100 premiers jours de son mandat[41]. Le 13 février 2021, le CDC a publié des données montrant que 50,6 millions de doses avaient été administrées à 37 millions de personnes, 13 millions entièrement vaccinées et les autres attendant leur deuxième dose[42].
-Dans une allocution du 11 mars 2021, Joe Biden a annoncé qu'il ferait pression pour que tous les États rendent la vaccination universellement accessible à tous les adultes au plus tard au 1er mai 2021. Il a annoncé d'autres initiatives prévues pour améliorer et élargir la distribution[41].
-Pénuries de fournitures médicales
-Le premier cas connu de COVID-19 aux États-Unis a été confirmé par le CDC le 21 janvier 2020[43]. Le lendemain, le patron de l'entreprise de fournitures médicales Prestige Ameritech a écrit aux responsables du HHS pour dire qu'il pourrait produire des millions de masques N95 par mois. Dans une lettre de suivi du 23 janvier, le propriétaire de l'entreprise a informé le gouvernement que « Nous sommes la dernière grande entreprise nationale de masques », sans succès[44].
-Le 5 février 2020, les responsables de l'administration Trump ont décliné une offre de financement du Congrès contre le coronavirus. Le sénateur Chris Murphy a rappelé que les responsables, y compris le secrétaire Azar, « n'avaient pas besoin de financement d'urgence, qu'ils seraient en mesure de le gérer dans les limites des crédits existants »[45]. Le 7 février 2020, Mike Pompeo a annoncé que l'Administration Trump avait fait don de plus de milliers de kilos de « masques, blouses, gaze, respirateurs et autres matériels vitaux » à la Chine le jour même où l'OMS a mis en garde contre « le stock limité d'EPI (équipements de protection individuelle ) »[43].
-En février 2020, le ministère du Commerce a publié des directives conseillant aux entreprises américaines de se conformer au processus accéléré de Pékin pour la vente de « produits médicaux essentiels », qui exigeait que les masques expédiés à l'étranger respectent les normes américaines. Selon les déclarations des douanes chinoises, plus de 600 tonnes de masques ont été expédiées en Chine en février[46].
-Début mars 2020, les États-Unis aveint environ douze millions de masques N95 et trente millions de masques chirurgicaux dans le stock national stratégique (SNS) ; mais le DHS a estimé que le stock ne comptait que 1,2 % des quelque 3,5 milliards de masques qui seraient nécessaires si COVID-19 devaient devenir une pandémie « à part entière »[47]. Une précédente étude du CDC en 2015 a révélé que sept milliards de respirateurs N95 pourraient être nécessaires pour gérer une « épidémie respiratoire grave »[48].
-En mars 2020, le SNS disposait de plus de 19 000 ventilateurs (16 660 immédiatement disponibles et 2 425 en maintenance), tous datant d'administrations précédentes[49]. La FEMA a déclaré que l'agence « n'a pas activement encouragé ou découragé les entreprises américaines d'exporter à l'étranger » et a demandé à l'USAID de renvoyer ses réserves d'équipements de protection à utiliser aux États-Unis0[50],[51]. Le président Trump a évoqué le Defense Production Act dans le but d'interdire certaines exportations médicales[52]. Certains analystes ont averti que les restrictions à l'exportation pourraient entraîner des représailles de la part des pays qui ont des fournitures médicales que les États-Unis doivent importer[53].
-Fin mars 2020, les États étaient en concurrence les uns contre les autres et contre le gouvernement fédéral pour obtenir des fournitures médicales rares telles que des masques N95, des masques chirurgicaux et des respirateurs[54],[55],[56]. Pendant ce temps, alors que les États se précipitaient pour acheter des fournitures à des prix gonflés auprès de distributeurs tiers (dont certains se sont révélés plus tard défectueux), des centaines de tonnes de masques ont été expédiées par fret aérien à des acheteurs étrangers en Chine et dans d'autres pays[46].
-Des organisations médicales telles que l'American Medical Association et l'American Nurses Association ont imploré Trump pour obtenir des fournitures médicales, car elles étaient « nécessaires de toute urgence ». Cela a conduit le président Trump à signer une ordonnance précisant la loi sur la production de défense, utilisée pour la première fois pendant la guerre de Corée, pour accorder au gouvernement fédéral un large éventail de pouvoirs, notamment imposer aux industries ce qu'il faut produire, allouer des fournitures, donner des incitations aux industries et permettant aux entreprises de coopérer. Trump a ensuite ordonné au constructeur automobile General Motors de fabriquer des respirateurs artificiels.
-Au cours de cette période, les hôpitaux aux États-Unis et dans d'autres pays signalaient des pénuries de kits de test, de tampons de test, de masques, de blouses et de gants (collectivement appelés EPI)[57],[58],[59]. Le Bureau de l'inspecteur général du Département américain de la santé et des services sociaux a publié un rapport concernant son enquête du 23 au 27 mars 2020 auprès de 323 hôpitaux. Les hôpitaux ont signalé « de graves pénuries de fournitures de test », « de fréquentes attentes de sept jours ou plus pour les résultats des tests », ce qui a prolongé la durée du séjour des patients et, par conséquent, « la disponibilité limitée des lits, les fournitures d'équipement de protection individuelle (EPI) et recrutement ». Les hôpitaux ont également signalé « des pénuries généralisées d'EPI » et « des directives changeantes et parfois incohérentes des autorités fédérales, étatiques et locales »[60]. Lors d'une conférence de presse après la publication du rapport, le président Trump a qualifié le rapport de « faux » et a remis en question les motivations de l'auteur. Plus tard, il a appelé le rapport « un autre faux dossier »[61].
-Début avril 2020, il y avait une pénurie généralisée d'EPI, notamment de masques, de gants, de blouses et de produits désinfectants[62]. Les difficultés d'acquisition des EPI pour les hôpitaux locaux ont conduit à la réquisition des commandes de blouses et d'autres articles de sécurité par la FEMA et à leur distribution vers d'autres endroits, ce qui signifiait que, dans certains cas, les États devaient se disputer le même EPI[63]. Les prix ont grimpé en flèche, les EPI coûtant jusqu'à 10 fois plus que la normale[64]. Les pénuries ont conduit un gouverneur à demander aux Patriots de la Nouvelle-Angleterre de la NFL d'utiliser leur avion privé pour transporter environ 1,2 million de masques de la Chine à Boston[65]. À cette époque, les employés des Anciens Combattants (VA) ont déclaré que les infirmières en étaient réduites utiliser des masques chirurgicaux et des écrans faciaux au lieu de masques N95 plus protecteurs[66]. En mai, Rick Bright, un immunologiste fédéral et lanceur d'alerte, a témoigné que l'Administration Trump n'avait pas pris les mesures appropriées pour acquérir les fournitures nécessaires[46].
-Un pourcentage étonnamment élevé de patients COVID-19 en soins intensifs a nécessité une dialyse en raison d'une insuffisance rénale (environ 20 %). À la mi-avril 2020, les employés de certains hôpitaux de New York ont déclaré ne pas avoir suffisamment de machines de dialyse, manquaient de liquide pour faire fonctionner les machines et ont signalé un manque d'infirmières en dialyse, car beaucoup avait contracté le COVID en raison du manque de EPI suffisant[67].
-Le 14 mai 2020, un responsable de l'administration Trump a déclaré aux journalistes : « nous prévoyons d'avoir 300 millions » de masques N95 d'ici l'automne ; cependant, fin septembre, il n'y avait que 87,6 millions de masques N95 dans le stock du gouvernement[68].
-Les problèmes d'approvisionnement ont persisté en août 2020, lorsqu'une enquête a révélé que 42 % des infirmières connaissaient des pénuries généralisées ou intermittentes d'équipements de protection individuelle, 60 % utilisant des équipements à usage unique pendant cinq jours ou plus[69]. Un rapport de septembre 2020 de la National Public Radio a révélé que certains articles étaient rares mais que d'autres étaient largement disponibles, en fonction de la difficulté de fabrication. Le DPA a été efficace dans la production de respirateurs mais moins dans la production de N95. En septembre, la DPA avait stimulé la production de N95 principalement par les grands fabricants existants, mais aussi par les petites entreprises. De plus, la disposition de la DPA qui exempte les fabricants de respecter les lois antitrust, n'a pas encore été utilisée pour encourager la collaboration dans la production de N95[70].
-En réponse à la demande, de nombreuses entreprises nationales se sont converties et, en raison du manque de coordination fédérale, ont fini par produire un surplus de désinfectant pour les mains et d'écrans faciaux, certaines perdant même de l'argent en raison d'une offre excédentaire ou d'un manque de distribution. Le réoutillage et la fabrication de fournitures d'urgence individuelles ont représenté la production d'au moins 34,2 millions de pièces d'EPI aux États-Unis, dont 14,5 millions étaient des écrans faciaux[71]. Le gouvernement fédéral a utilisé la Loi sur la production de défense pour amener quelques grands fabricants tels que 3M et Honeywell à augmenter la production des masques N95 les plus difficiles à fabriquer ; mais l'offre ne permettait toujours pas de répondre à la demande de centaines de millions d'unités. Le NPR a découvert que la pénurie pouvait être résolue en fournissant des garanties gouvernementales aux petits et moyens fabricants afin qu'ils puissent augmenter la production de masques N95 sans risquer de perdre de l'argent ou de faire faillite en raison d'une offre excédentaire ou d'une baisse de la demande à la fin de la pandémie. Au lieu de cela, le président Trump a nié l'existence de pénuries d'EPI, les qualifiant de « fausses nouvelles » en avril 2020  et en septembre disant « nous avons ouvert des usines, nous avons eu un énorme succès avec les masques et avec les protections ». La demande a également augmenté en raison de la réouverture de diverses activités, notamment les cabinets médicaux et dentaires, la construction et le transport[72]. Les incendies de forêt en Californie en 2020 ont également augmenté la demande de masques N95 pour les travailleurs agricoles, en raison des réglementations de l'État  californien exigeant une protection dans des conditions de mauvaise qualité de l'air[73].
-Capacité hospitalière dépassée
-La propagation incontrôlée du coronavirus a conduit certains établissements médicaux à refuser de nouveaux patients ou à commencer à transférer des patients. En mars et avril 2020, cela s'est produit dans la région de Detroit, Michigan[74] et dans la région de New York[75] ; Yakima, Washington en juin ;  et en juillet, c'est arrivé à Houston[76], la région de Boise, Idaho, Lake Charles et Lafayette, Louisiane, et dans des dizaines d'hôpitaux à travers l'état de Floride[77]. En août 2020, certains hôpitaux du Mississippi transféraient des patients vers d'autres États des États-Unis[78].
-L'Arizona a déclaré des normes de soins de crise en juillet 2020, permettant aux hôpitaux de fournir légalement des traitements normalement considérés comme inférieurs aux normes à certains patients afin d'en sauver d'autres[79].
-En janvier 2021, les hôpitaux du sud de la Californie ont commencé à être submergés de patients. Les responsables du comté de Los Angeles, où certaines ambulances devaient attendre jusqu'à huit heures pour faire entrer les patients aux urgences, ont ordonné aux ambulanciers de ne pas amener un patient à l'hôpital si ce patient avait peu de chances de survie. Ils ont également ordonné de prendre des mesures pour économiser l'oxygène médical[80].
 </t>
         </is>
       </c>
@@ -566,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>R%C3%A9ponses_des_%C3%89tats-Unis_%C3%A0_la_pand%C3%A9mie_de_COVID-19</t>
+          <t>Réponses_des_États-Unis_à_la_pandémie_de_COVID-19</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -581,13 +553,21 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Gouvernements fédéral, étatiques et locaux</t>
+          <t>Réponse médicale</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Le gouvernement fédéral des États-Unis a répondu à la pandémie par diverses déclarations d'urgence, qui ont entraîné des restrictions de voyage et d'entrée. Il a par ailleurs imposé des directives et des recommandations concernant la fermeture des écoles et des lieux de réunion publics, les fermetures et d'autres restrictions destinées à ralentir la progression du virus, que les gouvernements étatiques, territoriaux, tribaux et locaux ont suivis.
-À compter du 15 juillet 2020, la centralisation des données des données du COVID-19 aux États-Unis passe des Centers for Disease Control and Prevention au Department of Health and Human Services[81],[82],[83]. Cependant, « les hôpitaux peuvent être dispensés de rendre compte directement au gouvernement fédéral s'ils reçoivent une autorisation écrite de l'État indiquant que l'État collectera les données des hôpitaux et prendra en charge les rapports fédéraux »[81].
+          <t>Réponse initiale en dehors des États-Unis</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 6 janvier 2020, une semaine après que les États-Unis ont été informés de l'existence de l'épidémie en Chine, le département de la santé et des services sociaux et le CDC ont proposé d'envoyer une équipe d'experts américains de la santé en Chine. Selon le directeur du CDC, Robert R. Redfield, le gouvernement chinois a refusé de les laisser entrer, ce qui a contribué à ralentir l'identification du danger lié à l'épidémie et à la contenir avant qu'elle n'atteigne d'autres pays. Le secrétaire Alex Azar a déclaré que la Chine avait informé le monde beaucoup plus tôt qu'elle ne l'avait fait après leur épidémie de SRAS en 2003, mais qu'elle refusait sans donner d'explication l'aide du CDC pour lutter contre cette nouvelle épidémie.
+Le 28 janvier 2020, le CDC a mis à jour ses recommandations de voyage en Chine, en plaçant ce pays au niveau 3, sa plus haute alerte. Azar a soumis les noms d'experts américains à l'OMS et a déclaré que les États-Unis fourniraient 105 $ millions de dollars de financement, ajoutant qu'il avait demandé 136 millions de dollars supplémentaires  au Congrès,. Le 8 février, le directeur général de l'OMS a annoncé qu'une équipe d'experts internationaux avait été constituée pour se rendre en Chine et il espérait que des responsables du CDC feraient également partie de cette mission,. L'équipe de l'OMS était composée de treize chercheurs internationaux, dont deux Américains ; elle a visité cinq villes de Chine avec douze scientifiques locaux pour étudier l'épidémie du 16 au 23 février 2020. Le rapport final a été publié le 28 février.
+Fin janvier, l'aviateur américain Boeing a annoncé un don de 250 000 masques médicaux pour aider à faire face aux pénuries d'approvisionnement en Chine. Le 7 février 2020, le département d'État a déclaré qu'il avait facilité le transport de près de dix-huit tonnes de fournitures médicales vers la Chine, notamment des masques, des blouses, de la gaze, des respirateurs et d'autres matériels vitaux. Le même jour, le secrétaire d'État américain Pompeo a annoncé une somme de 100 millions de dollars afin d'aider la Chine et d'autres pays à lutter contre le virus.
+Le 28 février 2020, le Département d'État a proposé d'aider l'Iran à combattre sa propre épidémie, alors que les cas et les décès dans ce pays augmentaient considérablement,. L'Iran a cependant déclaré que les sanctions américaines entravaient sa lutte contre la maladie, ce que les États-Unis ont nié, affirmant que l'Iran avait mal géré la crise.
 </t>
         </is>
       </c>
@@ -598,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>R%C3%A9ponses_des_%C3%89tats-Unis_%C3%A0_la_pand%C3%A9mie_de_COVID-19</t>
+          <t>Réponses_des_États-Unis_à_la_pandémie_de_COVID-19</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -613,18 +593,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Recours à l'armée</t>
+          <t>Réponse médicale</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Le 3 février 2020, un document d'information non classifié de l'armée américaine sur le coronavirus prévoyait que dans un scénario improbable de « cygne noir », « entre 80 000 et 150 000 pourraient mourir ». La théorie affirmait que les personnes asymptomatiques pouvaient « facilement » transmettre le virus. Elle indiquait également que les forces militaires pourraient être chargées de fournir un soutien logistique et médical aux civils, y compris « fournir des EPI (masque facial N-95, protection oculaire et gants) aux évacués, au personnel et au personnel du Department of Defense »[84],[85].
-À la mi-mars 2020, le gouvernement a commencé à demander à l'armée d'utiliser sa capacité de soins dans les zones touchées par l'épidémie. L'United States Army Corps of Engineers (USACE), sous l'autorité de la Federal Emergency Management Agency (FEMA), a loué des bâtiments privés dans tout le pays. Ils comprenaient des hôtels, des dortoirs universitaires convertis en hôpitaux temporaires. Par exemple, le Jacob K. Javits Convention Center de New York a été rapidement transformé en un établissement de soins de 2 000 lits le 23 mars 2020[86]. L'armée a également mis en place des hôpitaux de campagne dans plusieurs villes touchées[87].
-Certaines de ces installations avaient des unités de soins intensifs pour les patients COVID-19, tandis que d'autres accueillaient des patients non covid pour permettre aux hôpitaux de se concentrer sur la pandémie[88],[87]. Au plus fort de cet effort, le US Northern Command avait déployé 9 000 membres du personnel médical militaire[87].
-Le 18 mars 2020, en plus des nombreux hôpitaux éphémères à l'échelle nationale, la Marine a déployé deux navires-hôpitaux, l'USNS Mercy et USNS Comfort, qui devaient accueillir des patients non covid transférés depuis des hôpitaux à terre, afin que ces hôpitaux puissent se concentrer sur les cas de virus[89]. Le 29 mars, invoquant la réduction des capacités médicales à terre et la fermeture des installations du port de Miami aux nouveaux patients, les garde-côtes américains ont exigé que les navires transportant plus de cinquante personnes se préparent à soigner les personnes malades à bord[90],[91].
-Le 6 avril 2020, l'armée a annoncé que la formation de base serait reportée pour les recrues. Les recrues déjà en formation poursuivraient ce que l'armée appelle une « formation à distance »[92]. Cependant, les militaires, en général, sont restés prêts à toute éventualité dans un environnement COVID-19. Au 9 avril, près de 2 000 militaires avaient confirmé des cas de COVID-19[93].
-En avril 2020, l'armée a prévu de reprendre l'entraînement collectif[94]. La distanciation sociale des soldats est de rigueur pendant la formation, les réunions[95] et le transport entre les sites[96]. Les températures des soldats sont mesurées à des intervalles déterminés et des mesures sont prises pour traiter immédiatement les soldats malades[97],[98],[99],[100].
-Le 26 juin 2020, la VA a signalé 20 509 cas de COVID-19 et 1 573 décès parmi les patients, plus de 2 000 cas et 38 décès parmi ses propres employés[101]. Depuis juillet 2020, du personnel de réserve supplémentaire est en « ordre de préparation au déploiement » au Texas et en Californie[87].
+          <t>Essai</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le dépistage du SRAS-CoV-2 permet aux personnels de la santé d'identifier les personnes infectées par le coronavirus. C'est aussi un élément important du suivi de la pandémie. Il existe différents types de tests sur le marché ; certains identifient si un patient est infecté ou non, tandis que d'autres donnent des informations sur une exposition antérieure au virus.
+Un rapport publié en janvier 2021 a révélé qu'une entreprise chinoise, BGI Group, tentait de distribuer ses kits de test COVID-19 dans au moins onze États des États-Unis. Les responsables américains du renseignement et de la sécurité ont lancé des avertissements sur les risques liés à l'utilisation de ces kits chinois, car BGI tentait d'utiliser l'ADN des patients, via les machines de séquençage génétique qui étaient présentées aux laboratoires américains. Cependant, les agences fédérales, y compris la Food and Drug Administration et la Federal Emergency Management Agency, ainsi que le département américain de la Santé et des Services sociaux ont poussé les États à utiliser les kits de test BGI, malgré ces avertissements. Avec onze autres États, le Nevada a reçu les kits de test fabriqués en Chine par la société de données et d'intelligence artificielle d'Abu Dhabi, Group 42, en collaboration avec BGI. Certaines des fournitures de test ont été utilisées au Nevada, mais des États comme l'Alabama, le Dakota du Sud, l'Ohio, le Rhode Island, le Massachusetts, l'Arkansas, la Californie, l'Indiana, le Kansas, la Caroline du Nord et la Pennsylvanie n'ont pas acheté les kits BGI,.
 </t>
         </is>
       </c>
@@ -635,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>R%C3%A9ponses_des_%C3%89tats-Unis_%C3%A0_la_pand%C3%A9mie_de_COVID-19</t>
+          <t>Réponses_des_États-Unis_à_la_pandémie_de_COVID-19</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -650,12 +631,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Secteur privé</t>
+          <t>Réponse médicale</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">De nombreux concierges et employés de nettoyage à travers les États-Unis ont signalé qu'ils n'avaient pas reçu suffisamment de temps, de ressources ou de formation pour nettoyer et désinfecter les bâtiments contre le COVID-19. Un pilote a rapporté que moins de dix minutes étaient allouées pour nettoyer des avions entiers entre l'arrivée et le départ, ce qui ne permettait pas aux agents d'entretien de désinfecter les tables à plateaux et les salles de bain ; ils ne pouvaient essuyer uniquement ceux qui « [avaient] l'air sales ». Les chiffons de nettoyage et les lingettes ont été réutilisés et les agents désinfectants, tels que l'eau de Javel, n'ont pas été fournis. Les employés se sont également plaints de ne pas être informés si des collègues étaient positifs pour le virus. L'Occupational Safety and Health Administration (OSHA), l'agence fédérale qui réglemente la sécurité et la santé au travail, a enquêté sur certaines de ces plaintes. Mary Kay Henry, présidente de Service Employees International Union, qui représente 375 000 gardiens américains, a expliqué que « les réouvertures se sont produites dans tout le pays sans trop de considération pour les normes de nettoyage ». Elle a demandé de meilleures normes gouvernementales et la mise en place d'un système de certification[102].
+          <t>Recherche des contacts</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La recherche des contacts est un outil pour contrôler les taux de transmission pendant le processus de réouverture. Certains États comme le Texas et l'Arizona ont choisi de procéder à la réouverture faire de recherche des cas contacts. Les experts de la santé ont exprimé des inquiétudes quant aux lacunes dans la formation et l'embauche d'un personnel suffisant pour réduire la transmission. Les problèmes de confidentialité ont empêché des mesures telles que celles imposées en Corée du Sud où les autorités ont utilisé le suivi des téléphones portables et les détails des cartes de crédit pour localiser et tester des milliers de clients de boîtes de nuit lorsque de nouveaux cas ont commencé à apparaître. Le financement de la recherche des cas contacts est considéré comme insuffisant, et même les États les mieux financés ont rencontré des difficultés pour entrer en contact avec les contacts. Le Congrès a alloué 631 $ millions pour financer les programmes de veille sanitaire des États et des collectivités locales ; mais le Johns Hopkins Center for Health Security estime que 3,6 $ milliards seront nécessaires. Le coût augmente avec le nombre d'infections et la recherche des contacts est plus facile à mettre en œuvre lorsque le nombre d'infections est plus faible. Les responsables de la santé craignent également que les plus pauvres soient détectés tardivement et « pourraient également être entravés par la méfiance des minorités envers les responsables de la santé publique ».
+Au 1er juillet 2020, seuls quatre États utilisaient des applications de recherche des contacts dans le cadre de leurs stratégies sanitaires pour contrôler la transmission. Les applications documentent les rencontres numériques entre smartphones, de sorte que les utilisateurs sont automatiquement avertis si une personne avec laquelle ils ont été en contact a été testée positive. Les responsables de la santé publique en Californie affirment que la plupart des fonctionnalités pourraient être dupliquées en utilisant des communications par SMS, chat, e-mail et téléphone.
 </t>
         </is>
       </c>
@@ -666,7 +654,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>R%C3%A9ponses_des_%C3%89tats-Unis_%C3%A0_la_pand%C3%A9mie_de_COVID-19</t>
+          <t>Réponses_des_États-Unis_à_la_pandémie_de_COVID-19</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -681,23 +669,18 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Réponse publique</t>
+          <t>Réponse médicale</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Les sondages ont montré une division partisane importante concernant l'épidémie. En février 2020, un nombre égal de démocrates et de républicains pensaient que le COVID-19 était « une menace réelle » : 70 % et 72 %, respectivement. Mais à la mi-mars, 76 % des démocrates considéraient le COVID-19 comme « une menace réelle », tandis que seulement 40 % des républicains étaient d'accord avec cette idée[103]. À la mi-mars, divers sondages ont révélé que les démocrates étaient plus susceptibles que les républicains de croire que « le pire était encore à venir » (79-40 %), de croire que leur vie allait changer de manière majeure en raison de l'épidémie (56-26 %), et de prendre certaines précautions contre le virus (83–53 %)[104]. Selon les enquêtes d'opinion, le CDC était la source d'information la plus fiable sur l'épidémie (85 %), suivi de l'OMS (77 %), des représentants des gouvernements des États et locaux (70 à 71 %), des médias d'information (47 %) et du président Trump (46 %)[104].
-Les analystes politiques prévoyaient que la pandémie affecterait négativement les chances de réélection de Trump[105],[106]. En mars 2020, lorsque les pratiques de distanciation sociale ont commencé, les gouverneurs de nombreux États ont enregistré de fortes augmentations des opinions positives[107]. La cote d'approbation de Trump est passée de 44 à 49 % dans les sondages Gallup[108] mais elle est tombée à 43 % à la mi-avril 2020. À cette époque, les sondages de Pew Research indiquaient que 65 % des Américains estimaient que Trump était trop lent à prendre des mesures importantes pour répondre à la pandémie[109].
-Le 16 avril 2020, les sondages de Pew Research indiquaient que 32 % des Américains craignaient que les gouvernements des États tardent à autoriser à nouveau les activités publiques, tandis que 66 % craignaient que les restrictions de l'État ne soient levées trop rapidement[110]. Un sondage du 21 avril a révélé un taux d'approbation de 44 % pour la gestion de la pandémie par le président, contre 72 % d'approbation pour les gouverneurs des États[111]. Un sondage de la mi-avril a estimé que le président Trump était une source d'informations sur la pandémie pour 28 % des Américains, tandis que les gouvernements des États ou locaux étaient une source pour 50 % des Américains. 60 % des Américains ont estimé que Trump n'écoutait pas suffisamment les experts de la santé pour faire face à l'épidémie[112],[113].
-Un sondage de mai 2020 a conclu que 54 % des Américains estimaient que le gouvernement fédéral faisait un mauvais travail pour arrêter la propagation du COVID-19. 57 % ont estimé que le gouvernement fédéral n'en faisait pas assez pour remédier au manque de tests COVID-19. 58 % ont estimé que le gouvernement fédéral n'en faisait pas assez pour empêcher une deuxième vague de cas de COVID-19 plus tard en 2020[114]. Un sondage réalisé du 20 au 21 mai 2020 a révélé que 56 % des Américains étaient « très » préoccupés par « des informations fausses ou trompeuses communiquées sur le coronavirus », tandis que 30 % étaient « quelque peu » préoccupés. 56 % des démocrates ont déclaré que la principale source d'informations fausses ou trompeuses sur le coronavirus était l'administration Trump, tandis que 54 % des républicains estimaient que les médias étaient la principale source d'informations fausses ou trompeuses[115].
-L'utilisation des données de localisation GPS et des enquêtes ont révélé que les républicains se livraient à moins de distanciation sociale que les démocrates pendant la pandémie[116],[117],[118],[119]. Les gouverneurs républicains ont été plus lents à mettre en œuvre des politiques de distanciation sociale que les gouverneurs démocrates[120]. Il y avait une division partisane sur les vaccinations COVID, les comtés qui ont voté majoritairement pour Trump  ayant des taux de vaccination plus faibles[121].
-Manifestations et troubles publics
-À partir de fin mai, des manifestations à grande échelle contre la brutalité policière dans au moins deux cents villes américaines en réponse au meurtre de George Floyd ont fait craindre une résurgence du virus en raison de la proximité des manifestants[123]. Fauci a déclaré que cela pourrait être une « configuration parfaite pour la propagation du virus »[124], et que « les masques peuvent aider, mais ce sont surtout les masques plus une séparation physique »[125]. Une étude a montré une augmentation des cas[126] tandis que l'Associated Press a rapporté qu'il y a peu de preuves pour une telle affirmation[127].
-Le 6 janvier 2021, des partisans du président Donald Trump ont pris d'assaut le bâtiment du Capitole des États-Unis pour perturber la certification de la victoire électorale de Joe Biden[128]. Au moins un militant a participé à l'émeute malgré un récent diagnostic positif de COVID-19[129] et peu de manifestants portaient  des masques, beaucoup venant de l'extérieur de la ville[128]. 200 membres du personnel du Congrès se seraient abrités dans diverses pièces à l'intérieur du Capitole, augmentant encore le risque de transmission[128],[130]. Quatre membres du Congrès ont par la suite été testés positifs après s'être abrités sur place avec des membres démasqués du Congrès lors de l'émeute du Capitole du 6 janvier 2021[131].
-Vues internationales des États-Unis
-En septembre 2020, le Pew Research Center a constaté que l'image mondiale des États-Unis avait souffert dans de nombreux pays étrangers. Dans certains pays, la cote de popularité des États-Unis avait atteint un niveau record depuis que Pew a commencé à collecter ces données il y a près de vingt ans. Dans treize pays différents, une médiane de 15 % des sondés a évalué positivement la réponse des États-Unis à la pandémie[132].
-Autres réponses sociales
-L'épidémie a incité les États-Unis à adopter des politiques sociales communes à d'autres pays riches, notamment les soins de santé universels, la garde d'enfants universelle, les congés de maladie payés et des niveaux de financement plus élevés pour la santé publique[133],[134],[135].
+          <t>Développement de la pharmacothérapie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aux États-Unis, le remdesivir est indiqué chez les adultes et les adolescents (âgés de douze ans et plus et pesant au moins 40 kilogrammes (88,184904 lb)) pour le traitement de la COVID‑19 nécessitant une hospitalisation. En novembre 2020, la FDA a délivré une autorisation d'utilisation d'urgence (EUA) pour l'association du baricitinib avec le remdesivir, pour trait des cas de COVID-19 suspecté ou confirmé en laboratoire chez les personnes hospitalisées âgées de deux ans ou plus, nécessitant de l'oxygène supplémentaire, une ventilation mécanique invasive, ou oxygénation par membrane extracorporelle (ECMO). En août 2020, il existait plus de 500 thérapies potentielles pour combattre la maladie COVID‑19 à divers stades de recherche préclinique ou clinique.
 </t>
         </is>
       </c>
@@ -708,7 +691,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>R%C3%A9ponses_des_%C3%89tats-Unis_%C3%A0_la_pand%C3%A9mie_de_COVID-19</t>
+          <t>Réponses_des_États-Unis_à_la_pandémie_de_COVID-19</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -723,13 +706,443 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Réponse médicale</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Développement de la pharmacothérapie</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Hydroxychloroquine et chloroquine</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Début mars, le président Trump a ordonné à la FDA de tester certains médicaments pour découvrir s'ils avaient le potentiel de traiter les patients atteints de COVID-19. Parmi ceux-ci figuraient la chloroquine et l'hydroxychloroquine, qui sont utilisées avec succès pour traiter le paludisme depuis plus de cinquante ans. En France, les tests réalisés par le chercheur Didier Raoult avait donné des résultats positifs, bien que l'étude ait été critiquée pour des défauts de conception, la petite taille de l'échantillon et le fait qu'elle ait été publiée avant l'examen par les pairs. L'une des études de Didier Raoult sur le COVID-19 a ensuite été retirée par l'International Journal of Antimicrobial Agents.
+Le 28 mars 2020, la FDA a délivré une autorisation d'utilisation d'urgence (EUA) qui a permis à certains patients hospitalisés COVID-19 d'être traités avec de l'hydroxychloroquine ou de la chloroquine. Puis le 15 juin, la FDA a retiré l'EUA pour l'hydroxychloroquine et la chloroquine comme traitements potentiels du COVID-19. La FDA a déclaré que les preuves disponibles ne montraient « aucun avantage pour réduire la probabilité de décès ou accélérer la guérison ». Le 1er juillet, la FDA a publié un examen des problèmes de sécurité associés aux médicaments, y compris des arythmies cardiaques mortelles parmi d'autres effets secondaires.
+Fin juillet 2020, le président Trump continuait de promouvoir l'utilisation de l'hydroxychloroquine contre le COVID-19. Il s'opposait ainsi à la position du NIH, qui affirmait que le médicament était « très peu susceptible d'être bénéfique pour les patients hospitalisés atteints de COVID-19 ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Réponses_des_États-Unis_à_la_pandémie_de_COVID-19</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Maladies infectieuses/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/R%C3%A9ponses_des_%C3%89tats-Unis_%C3%A0_la_pand%C3%A9mie_de_COVID-19</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Réponse médicale</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Recherche, développement et déploiement de vaccins</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Depuis le début de 2020, plus de 70 entreprises dans le monde (dont cinq ou six opérant principalement aux États-Unis) ont commencé la recherche sur les vaccins,. En vue de la production à grande échelle, le Congrès a prévu plus de 3,5 milliards de dollars à cette fin dans le cadre de la loi CARES,. Le 5 août 2020, les États-Unis ont accepté de payer à Johnson et Johnson plus d'un milliard de dollars pour fabriquer 100 millions de doses de vaccin COVID-19. L'accord donnait par ailleurs aux États-Unis la possibilité de commander 200 millions de doses supplémentaires. Les doses étaient censées être fournies gratuitement aux Américains si elles étaient utilisées dans une campagne de vaccination contre le COVID-19.
+BIO, un groupement d'entreprise comprenant tous les fabricants de vaccins contre les coronavirus à l'exception d'AstraZeneca, a tenté de persuader le secrétaire Azar de publier des directives strictes de la FDA qui pourraient aider à garantir la sécurité et l'adoption publique du vaccin. Cependant, la politique a eu un impact sur la recherche scientifique lorsque le chef de cabinet Mark Meadows a bloqué la FDA lorsqu'il s'est rendu compte que le calendrier de mise à disposition des doses rendrait impossible l'autorisation d'un vaccin avant les élections présidentielles de novembre,. Au bout du compte, les consignes ont émergé du Bureau de la gestion et du budget et ont été publiées sur le site Web de la FDA.
+Le 20 novembre 2020, le partenariat Pfizer-BioNTech a soumis une demande d'autorisation d'utilisation en urgence pour son vaccin à la Food and Drug Administration (FDA), qui a été accordée le 11 décembre. Le 18 décembre 2020, la FDA a accordé l'autorisation d'utilisation en urgence du vaccin Moderna, que Moderna avait demandée le 30 novembre 2020.
+À partir du 14 décembre 2020, les premières doses de vaccin COVID-19 ont été administrées aux États-Unis. Le CDC et chaque État gardent une trace du nombre de vaccins administrés.
+Après son entrée en fonction en janvier 2021, le nouveau président américain Joe Biden a signé un décret exécutif pour augmenter la production et la distribution de vaccins, afin d'administrer cent millions de doses au cours de ses 100 premiers jours de son mandat. Le 13 février 2021, le CDC a publié des données montrant que 50,6 millions de doses avaient été administrées à 37 millions de personnes, 13 millions entièrement vaccinées et les autres attendant leur deuxième dose.
+Dans une allocution du 11 mars 2021, Joe Biden a annoncé qu'il ferait pression pour que tous les États rendent la vaccination universellement accessible à tous les adultes au plus tard au 1er mai 2021. Il a annoncé d'autres initiatives prévues pour améliorer et élargir la distribution.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Réponses_des_États-Unis_à_la_pandémie_de_COVID-19</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Maladies infectieuses/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/R%C3%A9ponses_des_%C3%89tats-Unis_%C3%A0_la_pand%C3%A9mie_de_COVID-19</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Réponse médicale</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Pénuries de fournitures médicales</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le premier cas connu de COVID-19 aux États-Unis a été confirmé par le CDC le 21 janvier 2020. Le lendemain, le patron de l'entreprise de fournitures médicales Prestige Ameritech a écrit aux responsables du HHS pour dire qu'il pourrait produire des millions de masques N95 par mois. Dans une lettre de suivi du 23 janvier, le propriétaire de l'entreprise a informé le gouvernement que « Nous sommes la dernière grande entreprise nationale de masques », sans succès.
+Le 5 février 2020, les responsables de l'administration Trump ont décliné une offre de financement du Congrès contre le coronavirus. Le sénateur Chris Murphy a rappelé que les responsables, y compris le secrétaire Azar, « n'avaient pas besoin de financement d'urgence, qu'ils seraient en mesure de le gérer dans les limites des crédits existants ». Le 7 février 2020, Mike Pompeo a annoncé que l'Administration Trump avait fait don de plus de milliers de kilos de « masques, blouses, gaze, respirateurs et autres matériels vitaux » à la Chine le jour même où l'OMS a mis en garde contre « le stock limité d'EPI (équipements de protection individuelle ) ».
+En février 2020, le ministère du Commerce a publié des directives conseillant aux entreprises américaines de se conformer au processus accéléré de Pékin pour la vente de « produits médicaux essentiels », qui exigeait que les masques expédiés à l'étranger respectent les normes américaines. Selon les déclarations des douanes chinoises, plus de 600 tonnes de masques ont été expédiées en Chine en février.
+Début mars 2020, les États-Unis aveint environ douze millions de masques N95 et trente millions de masques chirurgicaux dans le stock national stratégique (SNS) ; mais le DHS a estimé que le stock ne comptait que 1,2 % des quelque 3,5 milliards de masques qui seraient nécessaires si COVID-19 devaient devenir une pandémie « à part entière ». Une précédente étude du CDC en 2015 a révélé que sept milliards de respirateurs N95 pourraient être nécessaires pour gérer une « épidémie respiratoire grave ».
+En mars 2020, le SNS disposait de plus de 19 000 ventilateurs (16 660 immédiatement disponibles et 2 425 en maintenance), tous datant d'administrations précédentes. La FEMA a déclaré que l'agence « n'a pas activement encouragé ou découragé les entreprises américaines d'exporter à l'étranger » et a demandé à l'USAID de renvoyer ses réserves d'équipements de protection à utiliser aux États-Unis0,. Le président Trump a évoqué le Defense Production Act dans le but d'interdire certaines exportations médicales. Certains analystes ont averti que les restrictions à l'exportation pourraient entraîner des représailles de la part des pays qui ont des fournitures médicales que les États-Unis doivent importer.
+Fin mars 2020, les États étaient en concurrence les uns contre les autres et contre le gouvernement fédéral pour obtenir des fournitures médicales rares telles que des masques N95, des masques chirurgicaux et des respirateurs. Pendant ce temps, alors que les États se précipitaient pour acheter des fournitures à des prix gonflés auprès de distributeurs tiers (dont certains se sont révélés plus tard défectueux), des centaines de tonnes de masques ont été expédiées par fret aérien à des acheteurs étrangers en Chine et dans d'autres pays.
+Des organisations médicales telles que l'American Medical Association et l'American Nurses Association ont imploré Trump pour obtenir des fournitures médicales, car elles étaient « nécessaires de toute urgence ». Cela a conduit le président Trump à signer une ordonnance précisant la loi sur la production de défense, utilisée pour la première fois pendant la guerre de Corée, pour accorder au gouvernement fédéral un large éventail de pouvoirs, notamment imposer aux industries ce qu'il faut produire, allouer des fournitures, donner des incitations aux industries et permettant aux entreprises de coopérer. Trump a ensuite ordonné au constructeur automobile General Motors de fabriquer des respirateurs artificiels.
+Au cours de cette période, les hôpitaux aux États-Unis et dans d'autres pays signalaient des pénuries de kits de test, de tampons de test, de masques, de blouses et de gants (collectivement appelés EPI). Le Bureau de l'inspecteur général du Département américain de la santé et des services sociaux a publié un rapport concernant son enquête du 23 au 27 mars 2020 auprès de 323 hôpitaux. Les hôpitaux ont signalé « de graves pénuries de fournitures de test », « de fréquentes attentes de sept jours ou plus pour les résultats des tests », ce qui a prolongé la durée du séjour des patients et, par conséquent, « la disponibilité limitée des lits, les fournitures d'équipement de protection individuelle (EPI) et recrutement ». Les hôpitaux ont également signalé « des pénuries généralisées d'EPI » et « des directives changeantes et parfois incohérentes des autorités fédérales, étatiques et locales ». Lors d'une conférence de presse après la publication du rapport, le président Trump a qualifié le rapport de « faux » et a remis en question les motivations de l'auteur. Plus tard, il a appelé le rapport « un autre faux dossier ».
+Début avril 2020, il y avait une pénurie généralisée d'EPI, notamment de masques, de gants, de blouses et de produits désinfectants. Les difficultés d'acquisition des EPI pour les hôpitaux locaux ont conduit à la réquisition des commandes de blouses et d'autres articles de sécurité par la FEMA et à leur distribution vers d'autres endroits, ce qui signifiait que, dans certains cas, les États devaient se disputer le même EPI. Les prix ont grimpé en flèche, les EPI coûtant jusqu'à 10 fois plus que la normale. Les pénuries ont conduit un gouverneur à demander aux Patriots de la Nouvelle-Angleterre de la NFL d'utiliser leur avion privé pour transporter environ 1,2 million de masques de la Chine à Boston. À cette époque, les employés des Anciens Combattants (VA) ont déclaré que les infirmières en étaient réduites utiliser des masques chirurgicaux et des écrans faciaux au lieu de masques N95 plus protecteurs. En mai, Rick Bright, un immunologiste fédéral et lanceur d'alerte, a témoigné que l'Administration Trump n'avait pas pris les mesures appropriées pour acquérir les fournitures nécessaires.
+Un pourcentage étonnamment élevé de patients COVID-19 en soins intensifs a nécessité une dialyse en raison d'une insuffisance rénale (environ 20 %). À la mi-avril 2020, les employés de certains hôpitaux de New York ont déclaré ne pas avoir suffisamment de machines de dialyse, manquaient de liquide pour faire fonctionner les machines et ont signalé un manque d'infirmières en dialyse, car beaucoup avait contracté le COVID en raison du manque de EPI suffisant.
+Le 14 mai 2020, un responsable de l'administration Trump a déclaré aux journalistes : « nous prévoyons d'avoir 300 millions » de masques N95 d'ici l'automne ; cependant, fin septembre, il n'y avait que 87,6 millions de masques N95 dans le stock du gouvernement.
+Les problèmes d'approvisionnement ont persisté en août 2020, lorsqu'une enquête a révélé que 42 % des infirmières connaissaient des pénuries généralisées ou intermittentes d'équipements de protection individuelle, 60 % utilisant des équipements à usage unique pendant cinq jours ou plus. Un rapport de septembre 2020 de la National Public Radio a révélé que certains articles étaient rares mais que d'autres étaient largement disponibles, en fonction de la difficulté de fabrication. Le DPA a été efficace dans la production de respirateurs mais moins dans la production de N95. En septembre, la DPA avait stimulé la production de N95 principalement par les grands fabricants existants, mais aussi par les petites entreprises. De plus, la disposition de la DPA qui exempte les fabricants de respecter les lois antitrust, n'a pas encore été utilisée pour encourager la collaboration dans la production de N95.
+En réponse à la demande, de nombreuses entreprises nationales se sont converties et, en raison du manque de coordination fédérale, ont fini par produire un surplus de désinfectant pour les mains et d'écrans faciaux, certaines perdant même de l'argent en raison d'une offre excédentaire ou d'un manque de distribution. Le réoutillage et la fabrication de fournitures d'urgence individuelles ont représenté la production d'au moins 34,2 millions de pièces d'EPI aux États-Unis, dont 14,5 millions étaient des écrans faciaux. Le gouvernement fédéral a utilisé la Loi sur la production de défense pour amener quelques grands fabricants tels que 3M et Honeywell à augmenter la production des masques N95 les plus difficiles à fabriquer ; mais l'offre ne permettait toujours pas de répondre à la demande de centaines de millions d'unités. Le NPR a découvert que la pénurie pouvait être résolue en fournissant des garanties gouvernementales aux petits et moyens fabricants afin qu'ils puissent augmenter la production de masques N95 sans risquer de perdre de l'argent ou de faire faillite en raison d'une offre excédentaire ou d'une baisse de la demande à la fin de la pandémie. Au lieu de cela, le président Trump a nié l'existence de pénuries d'EPI, les qualifiant de « fausses nouvelles » en avril 2020  et en septembre disant « nous avons ouvert des usines, nous avons eu un énorme succès avec les masques et avec les protections ». La demande a également augmenté en raison de la réouverture de diverses activités, notamment les cabinets médicaux et dentaires, la construction et le transport. Les incendies de forêt en Californie en 2020 ont également augmenté la demande de masques N95 pour les travailleurs agricoles, en raison des réglementations de l'État  californien exigeant une protection dans des conditions de mauvaise qualité de l'air.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Réponses_des_États-Unis_à_la_pandémie_de_COVID-19</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Maladies infectieuses/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/R%C3%A9ponses_des_%C3%89tats-Unis_%C3%A0_la_pand%C3%A9mie_de_COVID-19</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Réponse médicale</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Capacité hospitalière dépassée</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La propagation incontrôlée du coronavirus a conduit certains établissements médicaux à refuser de nouveaux patients ou à commencer à transférer des patients. En mars et avril 2020, cela s'est produit dans la région de Detroit, Michigan et dans la région de New York ; Yakima, Washington en juin ;  et en juillet, c'est arrivé à Houston, la région de Boise, Idaho, Lake Charles et Lafayette, Louisiane, et dans des dizaines d'hôpitaux à travers l'état de Floride. En août 2020, certains hôpitaux du Mississippi transféraient des patients vers d'autres États des États-Unis.
+L'Arizona a déclaré des normes de soins de crise en juillet 2020, permettant aux hôpitaux de fournir légalement des traitements normalement considérés comme inférieurs aux normes à certains patients afin d'en sauver d'autres.
+En janvier 2021, les hôpitaux du sud de la Californie ont commencé à être submergés de patients. Les responsables du comté de Los Angeles, où certaines ambulances devaient attendre jusqu'à huit heures pour faire entrer les patients aux urgences, ont ordonné aux ambulanciers de ne pas amener un patient à l'hôpital si ce patient avait peu de chances de survie. Ils ont également ordonné de prendre des mesures pour économiser l'oxygène médical.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Réponses_des_États-Unis_à_la_pandémie_de_COVID-19</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Maladies infectieuses/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/R%C3%A9ponses_des_%C3%89tats-Unis_%C3%A0_la_pand%C3%A9mie_de_COVID-19</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Gouvernements fédéral, étatiques et locaux</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le gouvernement fédéral des États-Unis a répondu à la pandémie par diverses déclarations d'urgence, qui ont entraîné des restrictions de voyage et d'entrée. Il a par ailleurs imposé des directives et des recommandations concernant la fermeture des écoles et des lieux de réunion publics, les fermetures et d'autres restrictions destinées à ralentir la progression du virus, que les gouvernements étatiques, territoriaux, tribaux et locaux ont suivis.
+À compter du 15 juillet 2020, la centralisation des données des données du COVID-19 aux États-Unis passe des Centers for Disease Control and Prevention au Department of Health and Human Services. Cependant, « les hôpitaux peuvent être dispensés de rendre compte directement au gouvernement fédéral s'ils reçoivent une autorisation écrite de l'État indiquant que l'État collectera les données des hôpitaux et prendra en charge les rapports fédéraux ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Réponses_des_États-Unis_à_la_pandémie_de_COVID-19</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Maladies infectieuses/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/R%C3%A9ponses_des_%C3%89tats-Unis_%C3%A0_la_pand%C3%A9mie_de_COVID-19</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Recours à l'armée</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 3 février 2020, un document d'information non classifié de l'armée américaine sur le coronavirus prévoyait que dans un scénario improbable de « cygne noir », « entre 80 000 et 150 000 pourraient mourir ». La théorie affirmait que les personnes asymptomatiques pouvaient « facilement » transmettre le virus. Elle indiquait également que les forces militaires pourraient être chargées de fournir un soutien logistique et médical aux civils, y compris « fournir des EPI (masque facial N-95, protection oculaire et gants) aux évacués, au personnel et au personnel du Department of Defense »,.
+À la mi-mars 2020, le gouvernement a commencé à demander à l'armée d'utiliser sa capacité de soins dans les zones touchées par l'épidémie. L'United States Army Corps of Engineers (USACE), sous l'autorité de la Federal Emergency Management Agency (FEMA), a loué des bâtiments privés dans tout le pays. Ils comprenaient des hôtels, des dortoirs universitaires convertis en hôpitaux temporaires. Par exemple, le Jacob K. Javits Convention Center de New York a été rapidement transformé en un établissement de soins de 2 000 lits le 23 mars 2020. L'armée a également mis en place des hôpitaux de campagne dans plusieurs villes touchées.
+Certaines de ces installations avaient des unités de soins intensifs pour les patients COVID-19, tandis que d'autres accueillaient des patients non covid pour permettre aux hôpitaux de se concentrer sur la pandémie,. Au plus fort de cet effort, le US Northern Command avait déployé 9 000 membres du personnel médical militaire.
+Le 18 mars 2020, en plus des nombreux hôpitaux éphémères à l'échelle nationale, la Marine a déployé deux navires-hôpitaux, l'USNS Mercy et USNS Comfort, qui devaient accueillir des patients non covid transférés depuis des hôpitaux à terre, afin que ces hôpitaux puissent se concentrer sur les cas de virus. Le 29 mars, invoquant la réduction des capacités médicales à terre et la fermeture des installations du port de Miami aux nouveaux patients, les garde-côtes américains ont exigé que les navires transportant plus de cinquante personnes se préparent à soigner les personnes malades à bord,.
+Le 6 avril 2020, l'armée a annoncé que la formation de base serait reportée pour les recrues. Les recrues déjà en formation poursuivraient ce que l'armée appelle une « formation à distance ». Cependant, les militaires, en général, sont restés prêts à toute éventualité dans un environnement COVID-19. Au 9 avril, près de 2 000 militaires avaient confirmé des cas de COVID-19.
+En avril 2020, l'armée a prévu de reprendre l'entraînement collectif. La distanciation sociale des soldats est de rigueur pendant la formation, les réunions et le transport entre les sites. Les températures des soldats sont mesurées à des intervalles déterminés et des mesures sont prises pour traiter immédiatement les soldats malades.
+Le 26 juin 2020, la VA a signalé 20 509 cas de COVID-19 et 1 573 décès parmi les patients, plus de 2 000 cas et 38 décès parmi ses propres employés. Depuis juillet 2020, du personnel de réserve supplémentaire est en « ordre de préparation au déploiement » au Texas et en Californie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Réponses_des_États-Unis_à_la_pandémie_de_COVID-19</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Maladies infectieuses/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/R%C3%A9ponses_des_%C3%89tats-Unis_%C3%A0_la_pand%C3%A9mie_de_COVID-19</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Secteur privé</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De nombreux concierges et employés de nettoyage à travers les États-Unis ont signalé qu'ils n'avaient pas reçu suffisamment de temps, de ressources ou de formation pour nettoyer et désinfecter les bâtiments contre le COVID-19. Un pilote a rapporté que moins de dix minutes étaient allouées pour nettoyer des avions entiers entre l'arrivée et le départ, ce qui ne permettait pas aux agents d'entretien de désinfecter les tables à plateaux et les salles de bain ; ils ne pouvaient essuyer uniquement ceux qui « [avaient] l'air sales ». Les chiffons de nettoyage et les lingettes ont été réutilisés et les agents désinfectants, tels que l'eau de Javel, n'ont pas été fournis. Les employés se sont également plaints de ne pas être informés si des collègues étaient positifs pour le virus. L'Occupational Safety and Health Administration (OSHA), l'agence fédérale qui réglemente la sécurité et la santé au travail, a enquêté sur certaines de ces plaintes. Mary Kay Henry, présidente de Service Employees International Union, qui représente 375 000 gardiens américains, a expliqué que « les réouvertures se sont produites dans tout le pays sans trop de considération pour les normes de nettoyage ». Elle a demandé de meilleures normes gouvernementales et la mise en place d'un système de certification.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Réponses_des_États-Unis_à_la_pandémie_de_COVID-19</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Maladies infectieuses/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/R%C3%A9ponses_des_%C3%89tats-Unis_%C3%A0_la_pand%C3%A9mie_de_COVID-19</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Réponse publique</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les sondages ont montré une division partisane importante concernant l'épidémie. En février 2020, un nombre égal de démocrates et de républicains pensaient que le COVID-19 était « une menace réelle » : 70 % et 72 %, respectivement. Mais à la mi-mars, 76 % des démocrates considéraient le COVID-19 comme « une menace réelle », tandis que seulement 40 % des républicains étaient d'accord avec cette idée. À la mi-mars, divers sondages ont révélé que les démocrates étaient plus susceptibles que les républicains de croire que « le pire était encore à venir » (79-40 %), de croire que leur vie allait changer de manière majeure en raison de l'épidémie (56-26 %), et de prendre certaines précautions contre le virus (83–53 %). Selon les enquêtes d'opinion, le CDC était la source d'information la plus fiable sur l'épidémie (85 %), suivi de l'OMS (77 %), des représentants des gouvernements des États et locaux (70 à 71 %), des médias d'information (47 %) et du président Trump (46 %).
+Les analystes politiques prévoyaient que la pandémie affecterait négativement les chances de réélection de Trump,. En mars 2020, lorsque les pratiques de distanciation sociale ont commencé, les gouverneurs de nombreux États ont enregistré de fortes augmentations des opinions positives. La cote d'approbation de Trump est passée de 44 à 49 % dans les sondages Gallup mais elle est tombée à 43 % à la mi-avril 2020. À cette époque, les sondages de Pew Research indiquaient que 65 % des Américains estimaient que Trump était trop lent à prendre des mesures importantes pour répondre à la pandémie.
+Le 16 avril 2020, les sondages de Pew Research indiquaient que 32 % des Américains craignaient que les gouvernements des États tardent à autoriser à nouveau les activités publiques, tandis que 66 % craignaient que les restrictions de l'État ne soient levées trop rapidement. Un sondage du 21 avril a révélé un taux d'approbation de 44 % pour la gestion de la pandémie par le président, contre 72 % d'approbation pour les gouverneurs des États. Un sondage de la mi-avril a estimé que le président Trump était une source d'informations sur la pandémie pour 28 % des Américains, tandis que les gouvernements des États ou locaux étaient une source pour 50 % des Américains. 60 % des Américains ont estimé que Trump n'écoutait pas suffisamment les experts de la santé pour faire face à l'épidémie,.
+Un sondage de mai 2020 a conclu que 54 % des Américains estimaient que le gouvernement fédéral faisait un mauvais travail pour arrêter la propagation du COVID-19. 57 % ont estimé que le gouvernement fédéral n'en faisait pas assez pour remédier au manque de tests COVID-19. 58 % ont estimé que le gouvernement fédéral n'en faisait pas assez pour empêcher une deuxième vague de cas de COVID-19 plus tard en 2020. Un sondage réalisé du 20 au 21 mai 2020 a révélé que 56 % des Américains étaient « très » préoccupés par « des informations fausses ou trompeuses communiquées sur le coronavirus », tandis que 30 % étaient « quelque peu » préoccupés. 56 % des démocrates ont déclaré que la principale source d'informations fausses ou trompeuses sur le coronavirus était l'administration Trump, tandis que 54 % des républicains estimaient que les médias étaient la principale source d'informations fausses ou trompeuses.
+L'utilisation des données de localisation GPS et des enquêtes ont révélé que les républicains se livraient à moins de distanciation sociale que les démocrates pendant la pandémie. Les gouverneurs républicains ont été plus lents à mettre en œuvre des politiques de distanciation sociale que les gouverneurs démocrates. Il y avait une division partisane sur les vaccinations COVID, les comtés qui ont voté majoritairement pour Trump  ayant des taux de vaccination plus faibles.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Réponses_des_États-Unis_à_la_pandémie_de_COVID-19</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Maladies infectieuses/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/R%C3%A9ponses_des_%C3%89tats-Unis_%C3%A0_la_pand%C3%A9mie_de_COVID-19</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Réponse publique</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Manifestations et troubles publics</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À partir de fin mai, des manifestations à grande échelle contre la brutalité policière dans au moins deux cents villes américaines en réponse au meurtre de George Floyd ont fait craindre une résurgence du virus en raison de la proximité des manifestants. Fauci a déclaré que cela pourrait être une « configuration parfaite pour la propagation du virus », et que « les masques peuvent aider, mais ce sont surtout les masques plus une séparation physique ». Une étude a montré une augmentation des cas tandis que l'Associated Press a rapporté qu'il y a peu de preuves pour une telle affirmation.
+Le 6 janvier 2021, des partisans du président Donald Trump ont pris d'assaut le bâtiment du Capitole des États-Unis pour perturber la certification de la victoire électorale de Joe Biden. Au moins un militant a participé à l'émeute malgré un récent diagnostic positif de COVID-19 et peu de manifestants portaient  des masques, beaucoup venant de l'extérieur de la ville. 200 membres du personnel du Congrès se seraient abrités dans diverses pièces à l'intérieur du Capitole, augmentant encore le risque de transmission,. Quatre membres du Congrès ont par la suite été testés positifs après s'être abrités sur place avec des membres démasqués du Congrès lors de l'émeute du Capitole du 6 janvier 2021.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Réponses_des_États-Unis_à_la_pandémie_de_COVID-19</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Maladies infectieuses/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/R%C3%A9ponses_des_%C3%89tats-Unis_%C3%A0_la_pand%C3%A9mie_de_COVID-19</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Réponse publique</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Vues internationales des États-Unis</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En septembre 2020, le Pew Research Center a constaté que l'image mondiale des États-Unis avait souffert dans de nombreux pays étrangers. Dans certains pays, la cote de popularité des États-Unis avait atteint un niveau record depuis que Pew a commencé à collecter ces données il y a près de vingt ans. Dans treize pays différents, une médiane de 15 % des sondés a évalué positivement la réponse des États-Unis à la pandémie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Réponses_des_États-Unis_à_la_pandémie_de_COVID-19</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Maladies infectieuses/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/R%C3%A9ponses_des_%C3%89tats-Unis_%C3%A0_la_pand%C3%A9mie_de_COVID-19</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Réponse publique</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Autres réponses sociales</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épidémie a incité les États-Unis à adopter des politiques sociales communes à d'autres pays riches, notamment les soins de santé universels, la garde d'enfants universelle, les congés de maladie payés et des niveaux de financement plus élevés pour la santé publique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Réponses_des_États-Unis_à_la_pandémie_de_COVID-19</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Maladies infectieuses/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/R%C3%A9ponses_des_%C3%89tats-Unis_%C3%A0_la_pand%C3%A9mie_de_COVID-19</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
           <t>Défis</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les valeurs culturelles américaines d'individualisme et de scepticisme à l'égard du gouvernement ont créé des difficultés pour amener la population à se conformer aux directives de santé publique[136]. La prévalence de la fatigue pandémique a entraîné d'autres cas de non-conformité aux rgèles[137],[138].
-Les théories du complot et la désinformation ont atteint des millions d'Américains par le biais des réseaux sociaux et des commentaires télévisés[139],[140]. En conséquence, de nombreuses personnes croient des mensonges, par exemple, que le port de masques est dangereux, qu'un syndicat mondial a planifié le virus ou que la COVID-19 est un canular[140],[141]. Facebook a annoncé avoir étiqueté ou supprimé 179 millions de publications d'utilisateurs contenant des informations erronées sur le COVID-19 au cours des trois premiers trimestres de 2020[142]. Le président Trump a diffusé à plusieurs reprises des informations erronées pour minimiser la menace du virus et détourner les critiques de son action[143]. Trump a affirmé qu'il avait fait cela pour « montrer son calme », en disant « je ne veux pas créer de panique »[144].
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les valeurs culturelles américaines d'individualisme et de scepticisme à l'égard du gouvernement ont créé des difficultés pour amener la population à se conformer aux directives de santé publique. La prévalence de la fatigue pandémique a entraîné d'autres cas de non-conformité aux rgèles,.
+Les théories du complot et la désinformation ont atteint des millions d'Américains par le biais des réseaux sociaux et des commentaires télévisés,. En conséquence, de nombreuses personnes croient des mensonges, par exemple, que le port de masques est dangereux, qu'un syndicat mondial a planifié le virus ou que la COVID-19 est un canular,. Facebook a annoncé avoir étiqueté ou supprimé 179 millions de publications d'utilisateurs contenant des informations erronées sur le COVID-19 au cours des trois premiers trimestres de 2020. Le président Trump a diffusé à plusieurs reprises des informations erronées pour minimiser la menace du virus et détourner les critiques de son action. Trump a affirmé qu'il avait fait cela pour « montrer son calme », en disant « je ne veux pas créer de panique ».
 </t>
         </is>
       </c>
